--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value210.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value210.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.589514949620886</v>
+        <v>1.547787547111511</v>
       </c>
       <c r="B1">
-        <v>2.044630850024007</v>
+        <v>3.671063899993896</v>
       </c>
       <c r="C1">
-        <v>2.007030036430654</v>
+        <v>5.683390140533447</v>
       </c>
       <c r="D1">
-        <v>1.996512226274903</v>
+        <v>1.399848341941833</v>
       </c>
       <c r="E1">
-        <v>0.5520463402266164</v>
+        <v>0.8167507648468018</v>
       </c>
     </row>
   </sheetData>
